--- a/biology/Botanique/Costus_osae/Costus_osae.xlsx
+++ b/biology/Botanique/Costus_osae/Costus_osae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus osae est une espèce de plantes à fleurs de la famille des Costaceae.
 C'est une espèce endémique d'une petite région du Costa Rica, le golfe Dulce. Elle réside dans des forêts primaires très humides, en plaine, principalement le long des petits cours d'eau.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus osae est une plante herbacée vivace qui peut mesurer jusqu'à 1 mètre de haut.
 Les rares feuilles densément poilues sont d'obovales à elliptiques.
